--- a/medicine/Pharmacie/Adolphe_Eymael/Adolphe_Eymael.xlsx
+++ b/medicine/Pharmacie/Adolphe_Eymael/Adolphe_Eymael.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolphe Constantin Dominique Eymael, né le 4 juillet 1830 à Liège, où il est mort le 11 décembre 1904[1], est un pharmacien (diplômé de l'université de Liège), industriel et candidat sénateur belge.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolphe Constantin Dominique Eymael, né le 4 juillet 1830 à Liège, où il est mort le 11 décembre 1904, est un pharmacien (diplômé de l'université de Liège), industriel et candidat sénateur belge.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean-Frédéric Eymael, négociant, et de Marie-Jeanne Musch, il naît le 4 juillet 1830 à Liège. Il obtient un diplôme de pharmacien à la Faculté de Médecine de l'Université de Liège. Propriétaire de pharmacies et d'usines chimiques, il est rentier. Amateur éclairé, il se constitue une collection de plus de 500 œuvres d'art et tableaux (Breughel, Jordaens, Lombard, Ruysdael, le Tintoret, Zurbaran…) qu'il expose dans ses hôtels particuliers de la place Saint-Jean (actuelle place Xavier Neujean) et du Mont Saint-Martin no 13 (ancien hôtel des Comtes de Méan qu'il acquiert en 1892 et dont il est le dernier propriétaire privé). Après sa mort en 1904, la vente aux enchères de cet exceptionnel patrimoine culturel dure dix jours et fut relatée dans la presse.
 Il est inhumé au cimetière de Sainte-Walburge, dans le caveau de la famille. Son épouse Rosalie Dubois (descendante de Gilles Dubois dit Kerkenne, négociant à Batavia, dans les Indes néerlandaises, au XVIIe siècle) ainsi que leurs cinq enfants, leurs conjoints et d'autres membres de cette famille liégeoise, soit une vingtaine de personnes sont également enterrés dans ce caveau. L'hôtel des Comtes de Méan est acquis par l'ASBL « Le Home des Invalides » en 1920.
@@ -544,7 +558,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son neveu, Ferdinand Eymael, industriel lui aussi, fut le quatrième président du Vestiaire libéral de 1917 à 1929, conseiller communal, échevin et bourgmestre faisant fonction de la Ville de Liège.  Il meurt le 22 janvier 1929 et est inhumé au cimetière de Robermont. Un médaillon, œuvre du sculpteur Georges Petit est placé sur sa tombe par ses amis du Comité du Vestiaire libéral.
 Le frère aîné d'Adolphe Eymael, le poète Frédéric Eymael fait des études de philosophie et de droit à l'université de Liège, meurt à 26 ans de l'épidémie de choléra qui sévit en 1849 et est inhumé, musique en tête, au cimetière de Robermont. Les anthologies de littérature belge disent de lui qu'il fut un disciple de Victor Hugo et d'Alfred de Musset, ses œuvres posthumes sont publiées en 1869 sous le nom de Reflets de Printemps.
